--- a/比特直播课/比特直播课笔记/笔记-C++/2024_11_11 2.入门收尾inline 类和对象.xlsx
+++ b/比特直播课/比特直播课笔记/笔记-C++/2024_11_11 2.入门收尾inline 类和对象.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,13 +16,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -50,15 +57,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -100,7 +115,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -132,9 +147,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -166,6 +182,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -341,37 +358,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/比特直播课/比特直播课笔记/笔记-C++/2024_11_11 2.入门收尾inline 类和对象.xlsx
+++ b/比特直播课/比特直播课笔记/笔记-C++/2024_11_11 2.入门收尾inline 类和对象.xlsx
@@ -70,6 +70,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>237667</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>85586</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10972800" y="5314950"/>
+          <a:ext cx="3666667" cy="1114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -362,7 +405,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+      <selection activeCell="AA23" sqref="AA23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -370,6 +413,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/比特直播课/比特直播课笔记/笔记-C++/2024_11_11 2.入门收尾inline 类和对象.xlsx
+++ b/比特直播课/比特直播课笔记/笔记-C++/2024_11_11 2.入门收尾inline 类和对象.xlsx
@@ -13,6 +13,18 @@
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>其实函数指针是不需要存储的，函数指针是⼀个地址，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调⽤函数被编译成汇编指令[call 地址]，其实编译器在编译链接时，就要找到函数的地址</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -76,34 +88,376 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>141876</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133283</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1066800" y="628650"/>
+          <a:ext cx="7990476" cy="533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>513689</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>56807</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2085975" y="1943100"/>
+          <a:ext cx="5285714" cy="2742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>589233</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>94353</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="5267325"/>
+          <a:ext cx="10533333" cy="7171428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>599434</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>28337</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11934825" y="8582025"/>
+          <a:ext cx="5123809" cy="1904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>449888</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2000250" y="12925424"/>
+          <a:ext cx="5993438" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>151036</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>171336</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="895350" y="14344650"/>
+          <a:ext cx="10914286" cy="914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>237667</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>85586</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10972800" y="5314950"/>
-          <a:ext cx="3666667" cy="1114286"/>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>542024</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>9460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2247900" y="15944850"/>
+          <a:ext cx="7209524" cy="523810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>484636</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>161613</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1657350" y="16868775"/>
+          <a:ext cx="9114286" cy="2495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>483871</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>151950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028700" y="20040600"/>
+          <a:ext cx="15228571" cy="3600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>74417</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>160939</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1581150" y="23822025"/>
+          <a:ext cx="14266667" cy="7885714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -402,14 +756,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="Y163:Y164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA23" sqref="AA23"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="AC143" sqref="AC143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="163" spans="25:25" x14ac:dyDescent="0.15">
+      <c r="Y163" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="25:25" x14ac:dyDescent="0.15">
+      <c r="Y164" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
